--- a/team_specific_matrix/Sam Houston_A.xlsx
+++ b/team_specific_matrix/Sam Houston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1904761904761905</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5411255411255411</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01731601731601732</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004329004329004329</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="P2">
-        <v>0.1601731601731602</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08658008658008658</v>
+        <v>0.08666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007692307692307693</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C3">
-        <v>0.01538461538461539</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03846153846153846</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7153846153846154</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2230769230769231</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2432432432432433</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06896551724137931</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01724137931034483</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08620689655172414</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3218390804597701</v>
+        <v>0.3130841121495327</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01724137931034483</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.08620689655172414</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="R6">
-        <v>0.03448275862068965</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="S6">
-        <v>0.367816091954023</v>
+        <v>0.3925233644859813</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09090909090909091</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02597402597402598</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02597402597402598</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1233766233766234</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03246753246753246</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2077922077922078</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="R7">
-        <v>0.1038961038961039</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.3896103896103896</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09742120343839542</v>
+        <v>0.1007025761124122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01146131805157593</v>
+        <v>0.0117096018735363</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05730659025787966</v>
+        <v>0.05386416861826698</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1432664756446991</v>
+        <v>0.1381733021077283</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002865329512893983</v>
+        <v>0.00936768149882904</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1547277936962751</v>
+        <v>0.1615925058548009</v>
       </c>
       <c r="R8">
-        <v>0.08882521489971347</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="S8">
-        <v>0.4441260744985673</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1645569620253164</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01265822784810127</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05696202531645569</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1392405063291139</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03164556962025317</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08227848101265822</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="R9">
-        <v>0.0759493670886076</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="S9">
-        <v>0.4367088607594937</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08952551477170993</v>
+        <v>0.09897360703812316</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02327663384064458</v>
+        <v>0.02199413489736071</v>
       </c>
       <c r="E10">
-        <v>0.001790510295434199</v>
+        <v>0.001466275659824047</v>
       </c>
       <c r="F10">
-        <v>0.05640107430617726</v>
+        <v>0.05791788856304985</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1387645478961504</v>
+        <v>0.1319648093841642</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01880035810205909</v>
+        <v>0.01979472140762463</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2148612354521038</v>
+        <v>0.2067448680351906</v>
       </c>
       <c r="R10">
-        <v>0.08594449418084155</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="S10">
-        <v>0.3706356311548791</v>
+        <v>0.3724340175953079</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.152</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.09385113268608414</v>
       </c>
       <c r="K11">
-        <v>0.208</v>
+        <v>0.2103559870550162</v>
       </c>
       <c r="L11">
-        <v>0.54</v>
+        <v>0.5210355987055016</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02</v>
+        <v>0.01941747572815534</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6906474820143885</v>
+        <v>0.6726190476190477</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2733812949640288</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.01438848920863309</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02158273381294964</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09375</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1542857142857143</v>
+        <v>0.1644444444444444</v>
       </c>
       <c r="I15">
-        <v>0.04571428571428571</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="J15">
-        <v>0.3828571428571428</v>
+        <v>0.3644444444444445</v>
       </c>
       <c r="K15">
-        <v>0.04571428571428571</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005714285714285714</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2857142857142857</v>
+        <v>0.2488888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0131578947368421</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1381578947368421</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="I16">
-        <v>0.09210526315789473</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J16">
-        <v>0.4802631578947368</v>
+        <v>0.4744897959183674</v>
       </c>
       <c r="K16">
-        <v>0.09210526315789473</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01973684210526316</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04605263157894737</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1184210526315789</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03133903133903134</v>
+        <v>0.03373493975903614</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1452991452991453</v>
+        <v>0.1421686746987952</v>
       </c>
       <c r="I17">
-        <v>0.1339031339031339</v>
+        <v>0.1373493975903614</v>
       </c>
       <c r="J17">
-        <v>0.415954415954416</v>
+        <v>0.4168674698795181</v>
       </c>
       <c r="K17">
-        <v>0.113960113960114</v>
+        <v>0.1060240963855422</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0113960113960114</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="O17">
-        <v>0.05698005698005698</v>
+        <v>0.05542168674698795</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09116809116809117</v>
+        <v>0.0963855421686747</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01886792452830189</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1823899371069182</v>
+        <v>0.1708542713567839</v>
       </c>
       <c r="I18">
-        <v>0.06289308176100629</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="J18">
-        <v>0.4088050314465409</v>
+        <v>0.4522613065326633</v>
       </c>
       <c r="K18">
-        <v>0.1006289308176101</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01257861635220126</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1383647798742138</v>
+        <v>0.1306532663316583</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02005730659025788</v>
+        <v>0.021875</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2129894937917861</v>
+        <v>0.21015625</v>
       </c>
       <c r="I19">
-        <v>0.07545367717287488</v>
+        <v>0.07109375</v>
       </c>
       <c r="J19">
-        <v>0.3858643744030564</v>
+        <v>0.38515625</v>
       </c>
       <c r="K19">
-        <v>0.1117478510028653</v>
+        <v>0.1125</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02101241642788921</v>
+        <v>0.0234375</v>
       </c>
       <c r="N19">
-        <v>0.002865329512893983</v>
+        <v>0.00390625</v>
       </c>
       <c r="O19">
-        <v>0.06685768863419293</v>
+        <v>0.06953125</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1031518624641834</v>
+        <v>0.10234375</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Sam Houston_A.xlsx
+++ b/team_specific_matrix/Sam Houston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1966666666666667</v>
+        <v>0.1920731707317073</v>
       </c>
       <c r="C2">
-        <v>0.5466666666666666</v>
+        <v>0.5579268292682927</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01333333333333333</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003333333333333334</v>
+        <v>0.003048780487804878</v>
       </c>
       <c r="P2">
-        <v>0.1533333333333333</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08666666666666667</v>
+        <v>0.08231707317073171</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005882352941176471</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C3">
-        <v>0.01764705882352941</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7470588235294118</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1968085106382979</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6904761904761905</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06542056074766354</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01401869158878505</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07943925233644859</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3130841121495327</v>
+        <v>0.3004291845493562</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01869158878504673</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.08411214953271028</v>
+        <v>0.08583690987124463</v>
       </c>
       <c r="R6">
-        <v>0.03271028037383177</v>
+        <v>0.03433476394849785</v>
       </c>
       <c r="S6">
-        <v>0.3925233644859813</v>
+        <v>0.4034334763948498</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1005291005291005</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02116402116402116</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02645502645502645</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.126984126984127</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02645502645502645</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1798941798941799</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="R7">
-        <v>0.1111111111111111</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="S7">
-        <v>0.4074074074074074</v>
+        <v>0.4097560975609756</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1007025761124122</v>
+        <v>0.1039823008849557</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0117096018735363</v>
+        <v>0.01106194690265487</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05386416861826698</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1381733021077283</v>
+        <v>0.1460176991150443</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00936768149882904</v>
+        <v>0.01106194690265487</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1615925058548009</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="R8">
-        <v>0.08196721311475409</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="S8">
-        <v>0.4426229508196721</v>
+        <v>0.4358407079646018</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1595744680851064</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01063829787234043</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05319148936170213</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1382978723404255</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03191489361702127</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0851063829787234</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="R9">
-        <v>0.09574468085106383</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="S9">
-        <v>0.425531914893617</v>
+        <v>0.407035175879397</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09897360703812316</v>
+        <v>0.1020689655172414</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02199413489736071</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="E10">
-        <v>0.001466275659824047</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="F10">
-        <v>0.05791788856304985</v>
+        <v>0.05931034482758621</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1319648093841642</v>
+        <v>0.1289655172413793</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01979472140762463</v>
+        <v>0.01931034482758621</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2067448680351906</v>
+        <v>0.2110344827586207</v>
       </c>
       <c r="R10">
-        <v>0.08870967741935484</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="S10">
-        <v>0.3724340175953079</v>
+        <v>0.3675862068965517</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1553398058252427</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09385113268608414</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K11">
-        <v>0.2103559870550162</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5210355987055016</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01941747572815534</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6726190476190477</v>
+        <v>0.6813186813186813</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2738095238095238</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K12">
-        <v>0.005952380952380952</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="L12">
-        <v>0.02380952380952381</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02380952380952381</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6744186046511628</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2325581395348837</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09302325581395349</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03555555555555556</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1644444444444444</v>
+        <v>0.1563786008230453</v>
       </c>
       <c r="I15">
-        <v>0.05777777777777778</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="J15">
-        <v>0.3644444444444445</v>
+        <v>0.3744855967078189</v>
       </c>
       <c r="K15">
-        <v>0.06222222222222222</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01333333333333333</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05333333333333334</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2488888888888889</v>
+        <v>0.2386831275720165</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01530612244897959</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1530612244897959</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I16">
-        <v>0.08163265306122448</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J16">
-        <v>0.4744897959183674</v>
+        <v>0.4768518518518519</v>
       </c>
       <c r="K16">
-        <v>0.08163265306122448</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01530612244897959</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1071428571428571</v>
+        <v>0.1064814814814815</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03373493975903614</v>
+        <v>0.0336322869955157</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1421686746987952</v>
+        <v>0.1390134529147982</v>
       </c>
       <c r="I17">
-        <v>0.1373493975903614</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="J17">
-        <v>0.4168674698795181</v>
+        <v>0.4147982062780269</v>
       </c>
       <c r="K17">
-        <v>0.1060240963855422</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009638554216867471</v>
+        <v>0.01121076233183856</v>
       </c>
       <c r="N17">
-        <v>0.002409638554216868</v>
+        <v>0.002242152466367713</v>
       </c>
       <c r="O17">
-        <v>0.05542168674698795</v>
+        <v>0.05605381165919283</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0963855421686747</v>
+        <v>0.1008968609865471</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01507537688442211</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1708542713567839</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="I18">
-        <v>0.05527638190954774</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="J18">
-        <v>0.4522613065326633</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="K18">
-        <v>0.1005025125628141</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01507537688442211</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06030150753768844</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1306532663316583</v>
+        <v>0.1220657276995305</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.021875</v>
+        <v>0.02146558105107328</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.21015625</v>
+        <v>0.2102146558105107</v>
       </c>
       <c r="I19">
-        <v>0.07109375</v>
+        <v>0.07105847520355292</v>
       </c>
       <c r="J19">
-        <v>0.38515625</v>
+        <v>0.384159881569208</v>
       </c>
       <c r="K19">
-        <v>0.1125</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0234375</v>
+        <v>0.0229459659511473</v>
       </c>
       <c r="N19">
-        <v>0.00390625</v>
+        <v>0.003700962250185048</v>
       </c>
       <c r="O19">
-        <v>0.06953125</v>
+        <v>0.0695780903034789</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.10234375</v>
+        <v>0.1028867505551443</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Sam Houston_A.xlsx
+++ b/team_specific_matrix/Sam Houston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1920731707317073</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5579268292682927</v>
+        <v>0.5625</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003048780487804878</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="P2">
-        <v>0.1524390243902439</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08231707317073171</v>
+        <v>0.08035714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005319148936170213</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="C3">
-        <v>0.01595744680851064</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02659574468085106</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7553191489361702</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1968085106382979</v>
+        <v>0.1968911917098446</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6976744186046512</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2790697674418605</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06437768240343347</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0128755364806867</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0815450643776824</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3004291845493562</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01716738197424893</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.08583690987124463</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="R6">
-        <v>0.03433476394849785</v>
+        <v>0.04184100418410042</v>
       </c>
       <c r="S6">
-        <v>0.4034334763948498</v>
+        <v>0.393305439330544</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1073170731707317</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01951219512195122</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03414634146341464</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1219512195121951</v>
+        <v>0.1179245283018868</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02926829268292683</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1707317073170732</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="R7">
-        <v>0.1073170731707317</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="S7">
-        <v>0.4097560975609756</v>
+        <v>0.419811320754717</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1039823008849557</v>
+        <v>0.1021276595744681</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01106194690265487</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05309734513274336</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1460176991150443</v>
+        <v>0.151063829787234</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01106194690265487</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1592920353982301</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="R8">
-        <v>0.07964601769911504</v>
+        <v>0.07872340425531915</v>
       </c>
       <c r="S8">
-        <v>0.4358407079646018</v>
+        <v>0.4340425531914894</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1658291457286432</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01507537688442211</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05527638190954774</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1407035175879397</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03015075376884422</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08542713567839195</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="R9">
-        <v>0.1005025125628141</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="S9">
-        <v>0.407035175879397</v>
+        <v>0.405940594059406</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1020689655172414</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02068965517241379</v>
+        <v>0.02131912058627582</v>
       </c>
       <c r="E10">
-        <v>0.001379310344827586</v>
+        <v>0.001332445036642239</v>
       </c>
       <c r="F10">
-        <v>0.05931034482758621</v>
+        <v>0.05929380413057962</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1289655172413793</v>
+        <v>0.128580946035976</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01931034482758621</v>
+        <v>0.01932045303131246</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2110344827586207</v>
+        <v>0.2111925383077948</v>
       </c>
       <c r="R10">
-        <v>0.0896551724137931</v>
+        <v>0.08927381745502998</v>
       </c>
       <c r="S10">
-        <v>0.3675862068965517</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1547619047619048</v>
+        <v>0.1518624641833811</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09523809523809523</v>
+        <v>0.1002865329512894</v>
       </c>
       <c r="K11">
-        <v>0.2083333333333333</v>
+        <v>0.2063037249283668</v>
       </c>
       <c r="L11">
-        <v>0.5208333333333334</v>
+        <v>0.5214899713467048</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02083333333333333</v>
+        <v>0.02005730659025788</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6813186813186813</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2692307692307692</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K12">
-        <v>0.005494505494505495</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="L12">
-        <v>0.02197802197802198</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02197802197802198</v>
+        <v>0.02116402116402116</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6818181818181818</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2272727272727273</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03292181069958848</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1563786008230453</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="I15">
-        <v>0.06172839506172839</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="J15">
-        <v>0.3744855967078189</v>
+        <v>0.3794466403162055</v>
       </c>
       <c r="K15">
-        <v>0.06172839506172839</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06172839506172839</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2386831275720165</v>
+        <v>0.2371541501976284</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01388888888888889</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1481481481481481</v>
+        <v>0.1479820627802691</v>
       </c>
       <c r="I16">
-        <v>0.07407407407407407</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J16">
-        <v>0.4768518518518519</v>
+        <v>0.4798206278026906</v>
       </c>
       <c r="K16">
-        <v>0.08796296296296297</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01388888888888889</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07870370370370371</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1064814814814815</v>
+        <v>0.1031390134529148</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0336322869955157</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1390134529147982</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="I17">
-        <v>0.1345291479820628</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="J17">
-        <v>0.4147982062780269</v>
+        <v>0.4217391304347826</v>
       </c>
       <c r="K17">
-        <v>0.1076233183856502</v>
+        <v>0.1065217391304348</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01121076233183856</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N17">
-        <v>0.002242152466367713</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="O17">
-        <v>0.05605381165919283</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1008968609865471</v>
+        <v>0.09782608695652174</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0187793427230047</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1784037558685446</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I18">
-        <v>0.05633802816901409</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J18">
-        <v>0.4366197183098591</v>
+        <v>0.4298642533936652</v>
       </c>
       <c r="K18">
-        <v>0.1126760563380282</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01408450704225352</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06103286384976526</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1220657276995305</v>
+        <v>0.1266968325791855</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02146558105107328</v>
+        <v>0.02217453505007153</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2102146558105107</v>
+        <v>0.2110157367668097</v>
       </c>
       <c r="I19">
-        <v>0.07105847520355292</v>
+        <v>0.07010014306151645</v>
       </c>
       <c r="J19">
-        <v>0.384159881569208</v>
+        <v>0.3819742489270386</v>
       </c>
       <c r="K19">
-        <v>0.1139896373056995</v>
+        <v>0.1144492131616595</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0229459659511473</v>
+        <v>0.02217453505007153</v>
       </c>
       <c r="N19">
-        <v>0.003700962250185048</v>
+        <v>0.00357653791130186</v>
       </c>
       <c r="O19">
-        <v>0.0695780903034789</v>
+        <v>0.07010014306151645</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1028867505551443</v>
+        <v>0.1044349070100143</v>
       </c>
     </row>
   </sheetData>
